--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573BBECE-7A49-4D58-BC04-25C249E8C4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>$coleccionPalabras=</t>
   </si>
@@ -46,15 +47,6 @@
     <t>Información de la estructura:</t>
   </si>
   <si>
-    <t>//indices</t>
-  </si>
-  <si>
-    <t>//valores</t>
-  </si>
-  <si>
-    <t>**** COMPLETAR ****</t>
-  </si>
-  <si>
     <t>Ejemplo de cómo representar las estructuras de datos según lo visto en teoría:</t>
   </si>
   <si>
@@ -62,13 +54,163 @@
   </si>
   <si>
     <t>¿Para qué se utiliza?: guarda las palabras que se pueden elegidas para jugar wordix</t>
+  </si>
+  <si>
+    <t>Carrera Bruno Abel.</t>
+  </si>
+  <si>
+    <t>Legajo: FAI-4912.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carrera: TUDW.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mail: brunofain2023@gmail.com.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usuario GitHub: R4ymundo</t>
+  </si>
+  <si>
+    <t>Legajo: FAI-4977.</t>
+  </si>
+  <si>
+    <t>Carrera: TUDW.</t>
+  </si>
+  <si>
+    <t>mail: santiaaronp04@gmail.com.</t>
+  </si>
+  <si>
+    <t>Usuario GitHub: Sanluki04</t>
+  </si>
+  <si>
+    <t>URL del Repositorio de Wordix: https://github.com/R4ymundo/trabajoDePromocion.git</t>
+  </si>
+  <si>
+    <t>Perez Santiago Aaron.</t>
+  </si>
+  <si>
+    <t>GOTAS</t>
+  </si>
+  <si>
+    <t>HUEVO</t>
+  </si>
+  <si>
+    <t>TINTO</t>
+  </si>
+  <si>
+    <t>NAVES</t>
+  </si>
+  <si>
+    <t>VERDE</t>
+  </si>
+  <si>
+    <t>MELON</t>
+  </si>
+  <si>
+    <t>YUYOS</t>
+  </si>
+  <si>
+    <t>PIANO</t>
+  </si>
+  <si>
+    <t>PISOS</t>
+  </si>
+  <si>
+    <t>FERIA</t>
+  </si>
+  <si>
+    <t>HIELO</t>
+  </si>
+  <si>
+    <t>CIELO</t>
+  </si>
+  <si>
+    <t>RATON</t>
+  </si>
+  <si>
+    <t>VARON</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas[0]=</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas[1]=</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas[2]=</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas[3]=</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas[4]=</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas[5]=</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas[6]=</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas[7]=</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas[8]=</t>
+  </si>
+  <si>
+    <t>$coleccionPartidas[9]=</t>
+  </si>
+  <si>
+    <t>majo</t>
+  </si>
+  <si>
+    <t>pink2000</t>
+  </si>
+  <si>
+    <t>sebas</t>
+  </si>
+  <si>
+    <t>rudolf</t>
+  </si>
+  <si>
+    <t>gustavo</t>
+  </si>
+  <si>
+    <t>roberto</t>
+  </si>
+  <si>
+    <t>nico</t>
+  </si>
+  <si>
+    <t>jere</t>
+  </si>
+  <si>
+    <t>palabraWordix</t>
+  </si>
+  <si>
+    <t>jugador</t>
+  </si>
+  <si>
+    <t>intentos</t>
+  </si>
+  <si>
+    <t>puntaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo: Multidimensional </t>
+  </si>
+  <si>
+    <t>Tipos de datos: Almacena valores String e Int</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: guarda las partidas jugadas de wordix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,30 +235,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,22 +287,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -163,19 +301,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -222,7 +378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +410,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,6 +462,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,16 +655,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -481,12 +673,12 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -508,11 +700,51 @@
       <c r="G3" s="2">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="M3" s="2">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>15</v>
+      </c>
+      <c r="R3" s="2">
+        <v>16</v>
+      </c>
+      <c r="S3" s="2">
+        <v>17</v>
+      </c>
+      <c r="T3" s="2">
+        <v>18</v>
+      </c>
+      <c r="U3" s="2">
+        <v>19</v>
+      </c>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -531,42 +763,488 @@
       <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="H27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6" t="s">
+      <c r="J28" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="H30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="H34" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="H36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H29" r:id="rId1" display="mailto:brunofain2023@gmail.com" xr:uid="{FD563C2F-CDDE-41D4-9BD8-58936566905C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/estructurasDatosWordix.xlsx
+++ b/estructurasDatosWordix.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573BBECE-7A49-4D58-BC04-25C249E8C4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572D26B7-49F0-4147-947C-F1A525A5545C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EstructuraDatos" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>$coleccionPalabras=</t>
   </si>
@@ -204,6 +204,78 @@
   </si>
   <si>
     <t>¿Para qué se utiliza?: guarda las partidas jugadas de wordix</t>
+  </si>
+  <si>
+    <t>$resumen[]=</t>
+  </si>
+  <si>
+    <t>partidas</t>
+  </si>
+  <si>
+    <t>victorias</t>
+  </si>
+  <si>
+    <t>porcentaje</t>
+  </si>
+  <si>
+    <t>intento1</t>
+  </si>
+  <si>
+    <t>intento2</t>
+  </si>
+  <si>
+    <t>intento3</t>
+  </si>
+  <si>
+    <t>intento4</t>
+  </si>
+  <si>
+    <t>intento5</t>
+  </si>
+  <si>
+    <t>intento6</t>
+  </si>
+  <si>
+    <t>$nombreJugador</t>
+  </si>
+  <si>
+    <t>$cPartidas</t>
+  </si>
+  <si>
+    <t>$sumaPuntaje</t>
+  </si>
+  <si>
+    <t>$cVictorias</t>
+  </si>
+  <si>
+    <t>$porcVictorias</t>
+  </si>
+  <si>
+    <t>$cInt1</t>
+  </si>
+  <si>
+    <t>$cInt2</t>
+  </si>
+  <si>
+    <t>$cInt3</t>
+  </si>
+  <si>
+    <t>$cInt4</t>
+  </si>
+  <si>
+    <t>$cInt5</t>
+  </si>
+  <si>
+    <t>$cInt6</t>
+  </si>
+  <si>
+    <t>Informacion de la estructura</t>
+  </si>
+  <si>
+    <t>Tipo: Multidimensional</t>
+  </si>
+  <si>
+    <t>¿Para qué se utiliza?: Guarda el resumen de un jugaddor</t>
   </si>
 </sst>
 </file>
@@ -292,12 +364,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,15 +380,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -336,9 +412,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -376,9 +452,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,26 +487,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,26 +522,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -656,20 +698,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1117,13 +1159,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1143,7 +1185,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>56</v>
       </c>
@@ -1160,7 +1202,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1169,7 +1211,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1189,7 +1231,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>56</v>
       </c>
@@ -1203,13 +1245,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -1226,7 +1268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>56</v>
       </c>
@@ -1238,6 +1280,104 @@
       </c>
       <c r="E41" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" t="s">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" t="s">
+        <v>82</v>
+      </c>
+      <c r="L43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" t="s">
+        <v>70</v>
+      </c>
+      <c r="K44" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H48" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
